--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basc/Documents/Analisis/15035_G1_ADSW/PREGAME/1. ELICITACIÓN/1.6 Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934E468A-A293-B34D-A291-2DA7BE3C1C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5220290-C623-2841-BB20-8F1A85C89FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>Tema</t>
   </si>
@@ -327,6 +327,21 @@
   </si>
   <si>
     <t>Comparando las horas estimadas con el tiempo total que tomo realizar el sprint podemos decir que estamos atrasados.</t>
+  </si>
+  <si>
+    <t>Dia 6</t>
+  </si>
+  <si>
+    <t>Dia 7</t>
+  </si>
+  <si>
+    <t>Dia 8</t>
+  </si>
+  <si>
+    <t>Dia 9</t>
+  </si>
+  <si>
+    <t>Dia 10</t>
   </si>
 </sst>
 </file>
@@ -503,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +651,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,33 +687,13 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,7 +792,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$B$39:$H$39</c:f>
+              <c:f>burdonchart!$B$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -784,22 +800,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +844,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$B$40:$H$40</c:f>
+              <c:f>burdonchart!$B$25:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -836,22 +852,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.599999999999998</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.799999999999998</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,9 +1143,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -1159,10 +1175,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I4:I23" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="N4:N23" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="0">
-      <calculatedColumnFormula>SUM(D4:H4)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(D4:M4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2581,10 +2597,10 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="63"/>
+      <c r="C3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="62"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2599,10 +2615,10 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
         <v>8</v>
@@ -2629,10 +2645,10 @@
       <c r="B6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="29" t="s">
         <v>27</v>
       </c>
@@ -2645,10 +2661,10 @@
       <c r="B7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="30" t="s">
         <v>27</v>
       </c>
@@ -2661,10 +2677,10 @@
       <c r="B8" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="33" t="s">
         <v>29</v>
       </c>
@@ -2677,10 +2693,10 @@
       <c r="B9" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="54" t="s">
         <v>29</v>
       </c>
@@ -2693,10 +2709,10 @@
       <c r="B10" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="33" t="s">
         <v>29</v>
       </c>
@@ -2709,10 +2725,10 @@
       <c r="B11" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="33" t="s">
         <v>29</v>
       </c>
@@ -2725,10 +2741,10 @@
       <c r="B12" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="39" t="s">
         <v>94</v>
       </c>
@@ -2741,10 +2757,10 @@
       <c r="B13" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="69"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="39" t="s">
         <v>94</v>
       </c>
@@ -2757,10 +2773,10 @@
       <c r="B14" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="39" t="s">
         <v>94</v>
       </c>
@@ -2773,10 +2789,10 @@
       <c r="B15" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="68"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="43" t="s">
         <v>28</v>
       </c>
@@ -2789,10 +2805,10 @@
       <c r="B16" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="68"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="43" t="s">
         <v>28</v>
       </c>
@@ -2805,10 +2821,10 @@
       <c r="B17" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="43" t="s">
         <v>28</v>
       </c>
@@ -2821,10 +2837,10 @@
       <c r="B18" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="43" t="s">
         <v>28</v>
       </c>
@@ -2837,10 +2853,10 @@
       <c r="B19" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="43" t="s">
         <v>28</v>
       </c>
@@ -2853,10 +2869,10 @@
       <c r="B20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="46" t="s">
         <v>27</v>
       </c>
@@ -2869,10 +2885,10 @@
       <c r="B21" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="46" t="s">
         <v>27</v>
       </c>
@@ -2885,10 +2901,10 @@
       <c r="B22" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="46" t="s">
         <v>27</v>
       </c>
@@ -2901,10 +2917,10 @@
       <c r="B23" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="46" t="s">
         <v>27</v>
       </c>
@@ -2917,10 +2933,10 @@
       <c r="B24" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="51" t="s">
         <v>28</v>
       </c>
@@ -2933,10 +2949,10 @@
       <c r="B25" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="51" t="s">
         <v>28</v>
       </c>
@@ -3906,6 +3922,19 @@
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -3915,19 +3944,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3940,10 +3956,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I993"/>
+  <dimension ref="A1:N993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3953,87 +3969,132 @@
     <col min="3" max="26" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
-        <f t="shared" ref="I4:I23" si="0">SUM(D4:H4)</f>
+      <c r="N4" s="8">
+        <f>SUM(D4:M4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <f>SUM(D5:M5)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="32" t="s">
         <v>73</v>
@@ -4041,560 +4102,870 @@
       <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f>SUM(D6:M6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" ref="N4:N23" si="0">SUM(D7:M7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="16">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="22">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="27">
         <v>0.5</v>
       </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="27">
+    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="56">
         <v>0.5</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10">
+    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
         <v>1</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13">
+    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <f>SUM(C4:C23)</f>
+        <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <f>C24-SUM(D4:D23)</f>
+        <v>28</v>
+      </c>
+      <c r="E24" s="2">
+        <f>D24-SUM(E4:E23)</f>
+        <v>25</v>
+      </c>
+      <c r="F24" s="2">
+        <f>E24-SUM(F4:F23)</f>
+        <v>22.5</v>
+      </c>
+      <c r="G24" s="2">
+        <f>F24-SUM(G4:G23)</f>
+        <v>17</v>
+      </c>
+      <c r="H24" s="2">
+        <f>G24-SUM(H4:H23)</f>
+        <v>13.5</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" ref="I24:M24" si="1">H24-SUM(I4:I23)</f>
+        <v>11</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <f>SUM(C4:C23)</f>
+        <v>30</v>
+      </c>
+      <c r="D25" s="2">
+        <f>C25-(SUM(C4:C23)/10)</f>
+        <v>27</v>
+      </c>
+      <c r="E25" s="2">
+        <f>D25-(SUM(C4:C23)/10)</f>
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <f>E25-(SUM(C4:C23)/10)</f>
+        <v>21</v>
+      </c>
+      <c r="G25" s="2">
+        <f>F25-(SUM(C4:C23)/10)</f>
+        <v>18</v>
+      </c>
+      <c r="H25" s="2">
+        <f>G25-(SUM(C4:C23)/10)</f>
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <f>H25-(SUM(C4:C23)/10)</f>
+        <v>12</v>
+      </c>
+      <c r="J25" s="2">
+        <f>I25-(SUM(C4:C23)/10)</f>
+        <v>9</v>
+      </c>
+      <c r="K25" s="2">
+        <f>J25-(SUM(C4:C23)/10)</f>
+        <v>6</v>
+      </c>
+      <c r="L25" s="2">
+        <f>K25-(SUM(C4:C23)/10)</f>
+        <v>3</v>
+      </c>
+      <c r="M25" s="2">
+        <f>L25-(SUM(C4:C23)/10)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="57">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>1</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="2">
-        <f>SUM(C4:C23)</f>
-        <v>29</v>
-      </c>
-      <c r="D39" s="2">
-        <f>C39-SUM(D4:D23)</f>
-        <v>25</v>
-      </c>
-      <c r="E39" s="2">
-        <f>D39-SUM(E4:E23)</f>
-        <v>19</v>
-      </c>
-      <c r="F39" s="2">
-        <f>E39-SUM(F4:F23)</f>
-        <v>14</v>
-      </c>
-      <c r="G39" s="2">
-        <f>F39-SUM(G4:G23)</f>
-        <v>8</v>
-      </c>
-      <c r="H39" s="2">
-        <f>G39-SUM(H4:H23)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2">
-        <f>SUM(C4:C23)</f>
-        <v>29</v>
-      </c>
-      <c r="D40" s="2">
-        <f>C40-(SUM(C4:C23)/5)</f>
-        <v>23.2</v>
-      </c>
-      <c r="E40" s="2">
-        <f>D40-(SUM(C4:C23)/5)</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="F40" s="2">
-        <f>E40-(SUM(C4:C23)/5)</f>
-        <v>11.599999999999998</v>
-      </c>
-      <c r="G40" s="2">
-        <f>F40-(SUM(C4:C23)/5)</f>
-        <v>5.799999999999998</v>
-      </c>
-      <c r="H40" s="2">
-        <f>G40-(SUM(C4:C23)/5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="13" t="s">
         <v>30</v>
       </c>
@@ -4603,27 +4974,27 @@
       </c>
       <c r="E42" s="71"/>
     </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="71"/>
       <c r="E43" s="71"/>
     </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
     </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="71"/>
       <c r="E45" s="71"/>
     </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
     </row>
-    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="71"/>
       <c r="E47" s="71"/>
     </row>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="71"/>
       <c r="E48" s="71"/>
     </row>
